--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3602434.54230199</v>
+        <v>3600044.774110232</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673416</v>
+        <v>603248.4937673421</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
         <v>318.297755152415</v>
@@ -1376,16 +1376,16 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>211.9164927266841</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>189.7454789751438</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
@@ -1436,7 +1436,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
         <v>120.2716844800353</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1616,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>13.91332762480675</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>241.6510731180171</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
         <v>302.2658320988205</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
         <v>120.2716844800353</v>
@@ -1771,19 +1771,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>288.7835684262955</v>
       </c>
       <c r="C17" t="n">
-        <v>271.3226185338224</v>
+        <v>219.0403606609451</v>
       </c>
       <c r="D17" t="n">
         <v>260.7327683834978</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>15.23748855099068</v>
+        <v>15.2374885509907</v>
       </c>
       <c r="T17" t="n">
         <v>109.967696902435</v>
       </c>
       <c r="U17" t="n">
-        <v>157.0448987217169</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V17" t="n">
-        <v>181.5197273600746</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W17" t="n">
         <v>255.2906954802279</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247739</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.88170694475218</v>
+        <v>85.88170694475217</v>
       </c>
       <c r="C19" t="n">
-        <v>73.29654786144272</v>
+        <v>73.2965478614427</v>
       </c>
       <c r="D19" t="n">
-        <v>57.12552096357065</v>
+        <v>54.66519978102723</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>51.47077478574612</v>
       </c>
       <c r="G19" t="n">
-        <v>72.07553502184311</v>
+        <v>74.53585620438588</v>
       </c>
       <c r="H19" t="n">
-        <v>50.80474167713566</v>
+        <v>50.80474167713565</v>
       </c>
       <c r="I19" t="n">
-        <v>2.402147172652953</v>
+        <v>2.402147172652967</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.81875209425677</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V19" t="n">
         <v>158.1873700866429</v>
       </c>
       <c r="W19" t="n">
-        <v>192.5727250994059</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>131.759382151852</v>
@@ -2087,7 +2087,7 @@
         <v>260.7327683834978</v>
       </c>
       <c r="E20" t="n">
-        <v>287.9800968350767</v>
+        <v>235.6978389621992</v>
       </c>
       <c r="F20" t="n">
         <v>312.9257725045263</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>15.23748855099072</v>
       </c>
       <c r="T20" t="n">
-        <v>72.9229275805494</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U20" t="n">
-        <v>157.0448987217169</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V20" t="n">
         <v>233.8019852329498</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247628</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.88170694475218</v>
+        <v>85.88170694475217</v>
       </c>
       <c r="C22" t="n">
-        <v>73.29654786144272</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>54.66519978102724</v>
+        <v>54.66519978102723</v>
       </c>
       <c r="E22" t="n">
-        <v>52.48368940938406</v>
+        <v>52.48368940938404</v>
       </c>
       <c r="F22" t="n">
-        <v>58.94921653542697</v>
+        <v>51.47077478574612</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>72.07553502184309</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>50.80474167713565</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>2.402147172652981</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>95.81875209425678</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>125.5986760389841</v>
+        <v>133.077117788664</v>
       </c>
       <c r="U22" t="n">
         <v>192.2615649684277</v>
       </c>
       <c r="V22" t="n">
-        <v>158.1873700866429</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>192.5727250994059</v>
@@ -2372,7 +2372,7 @@
         <v>109.967696902435</v>
       </c>
       <c r="U23" t="n">
-        <v>157.0448987217169</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V23" t="n">
         <v>233.8019852329498</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.88170694475218</v>
+        <v>85.88170694475217</v>
       </c>
       <c r="C25" t="n">
-        <v>73.29654786144272</v>
+        <v>73.2965478614427</v>
       </c>
       <c r="D25" t="n">
-        <v>54.66519978102724</v>
+        <v>54.66519978102723</v>
       </c>
       <c r="E25" t="n">
-        <v>52.48368940938406</v>
+        <v>52.48368940938404</v>
       </c>
       <c r="F25" t="n">
-        <v>51.47077478574613</v>
+        <v>51.47077478574612</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>72.07553502184309</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>50.80474167713565</v>
       </c>
       <c r="I25" t="n">
-        <v>4.862468355195571</v>
+        <v>2.402147172652981</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.81875209425678</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>125.5986760389841</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W25" t="n">
-        <v>192.5727250994059</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>131.759382151852</v>
+        <v>134.2197033343941</v>
       </c>
       <c r="Y25" t="n">
         <v>124.6343801149097</v>
@@ -2564,7 +2564,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231185</v>
       </c>
       <c r="G26" t="n">
         <v>363.9465890348609</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210273</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403094</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687281</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3029,22 +3029,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
         <v>204.0200353403094</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797656</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3241,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3250,7 +3250,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
         <v>171.6095167335022</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>310.7734818637933</v>
+        <v>310.7734818637932</v>
       </c>
       <c r="C35" t="n">
-        <v>293.3125319713203</v>
+        <v>293.3125319713201</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>282.7226818209956</v>
       </c>
       <c r="E35" t="n">
-        <v>309.9700102725745</v>
+        <v>288.7903301284942</v>
       </c>
       <c r="F35" t="n">
         <v>334.9156859420241</v>
       </c>
       <c r="G35" t="n">
-        <v>338.9613658537662</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>222.6474045876332</v>
+        <v>222.6474045876331</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>37.22740198848857</v>
+        <v>37.22740198848845</v>
       </c>
       <c r="T35" t="n">
         <v>131.9576103399328</v>
       </c>
       <c r="U35" t="n">
-        <v>179.0348121592147</v>
+        <v>179.0348121592146</v>
       </c>
       <c r="V35" t="n">
-        <v>255.7918986704476</v>
+        <v>255.7918986704475</v>
       </c>
       <c r="W35" t="n">
         <v>277.2806089177257</v>
       </c>
       <c r="X35" t="n">
-        <v>220.3523767019307</v>
+        <v>297.7707408787817</v>
       </c>
       <c r="Y35" t="n">
-        <v>314.2775788563663</v>
+        <v>314.2775788563662</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.87162038225</v>
+        <v>107.8716203822499</v>
       </c>
       <c r="C37" t="n">
-        <v>95.28646129894055</v>
+        <v>95.28646129894045</v>
       </c>
       <c r="D37" t="n">
-        <v>76.65511321852507</v>
+        <v>76.65511321852497</v>
       </c>
       <c r="E37" t="n">
-        <v>74.47360284688189</v>
+        <v>74.47360284688179</v>
       </c>
       <c r="F37" t="n">
-        <v>104.9016079216998</v>
+        <v>73.46068822324386</v>
       </c>
       <c r="G37" t="n">
-        <v>94.06544845934094</v>
+        <v>94.06544845934084</v>
       </c>
       <c r="H37" t="n">
-        <v>72.7946551146335</v>
+        <v>72.7946551146334</v>
       </c>
       <c r="I37" t="n">
-        <v>24.39206061015081</v>
+        <v>24.39206061015071</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.97179287036005</v>
+        <v>16.97179287035995</v>
       </c>
       <c r="S37" t="n">
-        <v>117.8086655317546</v>
+        <v>117.8086655317545</v>
       </c>
       <c r="T37" t="n">
-        <v>147.5885894764819</v>
+        <v>147.5885894764818</v>
       </c>
       <c r="U37" t="n">
-        <v>214.2514784059256</v>
+        <v>214.2514784059255</v>
       </c>
       <c r="V37" t="n">
-        <v>180.1772835241407</v>
+        <v>180.1772835241406</v>
       </c>
       <c r="W37" t="n">
-        <v>214.5626385369037</v>
+        <v>214.5626385369036</v>
       </c>
       <c r="X37" t="n">
-        <v>153.7492955893499</v>
+        <v>153.7492955893498</v>
       </c>
       <c r="Y37" t="n">
-        <v>146.6242935524075</v>
+        <v>178.0652132508644</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>310.7734818637933</v>
+        <v>310.7734818637932</v>
       </c>
       <c r="C38" t="n">
-        <v>293.3125319713203</v>
+        <v>293.3125319713201</v>
       </c>
       <c r="D38" t="n">
-        <v>282.7226818209957</v>
+        <v>282.7226818209956</v>
       </c>
       <c r="E38" t="n">
-        <v>309.9700102725745</v>
+        <v>172.4763688623613</v>
       </c>
       <c r="F38" t="n">
         <v>334.9156859420241</v>
       </c>
       <c r="G38" t="n">
-        <v>338.9613658537662</v>
+        <v>338.9613658537661</v>
       </c>
       <c r="H38" t="n">
-        <v>222.6474045876332</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>37.22740198848847</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>131.9576103399328</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>179.0348121592146</v>
       </c>
       <c r="V38" t="n">
-        <v>243.870677160236</v>
+        <v>255.7918986704475</v>
       </c>
       <c r="W38" t="n">
         <v>277.2806089177257</v>
@@ -3569,7 +3569,7 @@
         <v>297.7707408787817</v>
       </c>
       <c r="Y38" t="n">
-        <v>314.2775788563663</v>
+        <v>314.2775788563662</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>107.87162038225</v>
+        <v>107.8716203822499</v>
       </c>
       <c r="C40" t="n">
-        <v>95.28646129894055</v>
+        <v>95.28646129894045</v>
       </c>
       <c r="D40" t="n">
-        <v>76.65511321852507</v>
+        <v>76.65511321852497</v>
       </c>
       <c r="E40" t="n">
-        <v>74.47360284688189</v>
+        <v>74.47360284688179</v>
       </c>
       <c r="F40" t="n">
-        <v>104.9016079216998</v>
+        <v>73.46068822324386</v>
       </c>
       <c r="G40" t="n">
-        <v>94.06544845934094</v>
+        <v>94.06544845934084</v>
       </c>
       <c r="H40" t="n">
-        <v>72.7946551146335</v>
+        <v>72.7946551146334</v>
       </c>
       <c r="I40" t="n">
-        <v>24.39206061015081</v>
+        <v>24.39206061015073</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.97179287036005</v>
+        <v>16.97179287035996</v>
       </c>
       <c r="S40" t="n">
-        <v>117.8086655317546</v>
+        <v>117.8086655317545</v>
       </c>
       <c r="T40" t="n">
-        <v>147.5885894764819</v>
+        <v>147.5885894764818</v>
       </c>
       <c r="U40" t="n">
-        <v>214.2514784059256</v>
+        <v>214.2514784059255</v>
       </c>
       <c r="V40" t="n">
-        <v>180.1772835241407</v>
+        <v>211.6182032225969</v>
       </c>
       <c r="W40" t="n">
-        <v>214.5626385369037</v>
+        <v>214.5626385369036</v>
       </c>
       <c r="X40" t="n">
-        <v>153.7492955893499</v>
+        <v>153.7492955893498</v>
       </c>
       <c r="Y40" t="n">
-        <v>146.6242935524075</v>
+        <v>146.6242935524074</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>310.7734818637933</v>
+        <v>310.7734818637932</v>
       </c>
       <c r="C41" t="n">
-        <v>293.3125319713203</v>
+        <v>293.3125319713201</v>
       </c>
       <c r="D41" t="n">
-        <v>282.7226818209957</v>
+        <v>282.7226818209956</v>
       </c>
       <c r="E41" t="n">
-        <v>309.9700102725745</v>
+        <v>284.7446502167518</v>
       </c>
       <c r="F41" t="n">
-        <v>334.9156859420241</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>327.0401443435549</v>
+        <v>338.9613658537661</v>
       </c>
       <c r="H41" t="n">
-        <v>222.6474045876332</v>
+        <v>222.6474045876331</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>37.22740198848847</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>131.9576103399328</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>179.0348121592146</v>
       </c>
       <c r="V41" t="n">
-        <v>255.7918986704476</v>
+        <v>255.7918986704475</v>
       </c>
       <c r="W41" t="n">
         <v>277.2806089177257</v>
@@ -3806,7 +3806,7 @@
         <v>297.7707408787817</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.2775788563663</v>
+        <v>314.2775788563662</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.87162038225</v>
+        <v>107.8716203822499</v>
       </c>
       <c r="C43" t="n">
-        <v>95.28646129894055</v>
+        <v>95.28646129894045</v>
       </c>
       <c r="D43" t="n">
-        <v>76.65511321852507</v>
+        <v>76.65511321852497</v>
       </c>
       <c r="E43" t="n">
-        <v>74.47360284688189</v>
+        <v>74.47360284688179</v>
       </c>
       <c r="F43" t="n">
-        <v>73.46068822324396</v>
+        <v>73.46068822324386</v>
       </c>
       <c r="G43" t="n">
-        <v>94.06544845934094</v>
+        <v>94.06544845934084</v>
       </c>
       <c r="H43" t="n">
-        <v>72.7946551146335</v>
+        <v>72.7946551146334</v>
       </c>
       <c r="I43" t="n">
-        <v>24.39206061015081</v>
+        <v>24.39206061015073</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>48.41271256881585</v>
+        <v>48.4127125688163</v>
       </c>
       <c r="S43" t="n">
-        <v>117.8086655317546</v>
+        <v>117.8086655317545</v>
       </c>
       <c r="T43" t="n">
-        <v>147.5885894764819</v>
+        <v>147.5885894764818</v>
       </c>
       <c r="U43" t="n">
-        <v>214.2514784059256</v>
+        <v>214.2514784059255</v>
       </c>
       <c r="V43" t="n">
-        <v>180.1772835241407</v>
+        <v>180.1772835241406</v>
       </c>
       <c r="W43" t="n">
-        <v>214.5626385369037</v>
+        <v>214.5626385369036</v>
       </c>
       <c r="X43" t="n">
-        <v>153.7492955893499</v>
+        <v>153.7492955893498</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6242935524075</v>
+        <v>146.6242935524074</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>310.7734818637933</v>
+        <v>310.7734818637932</v>
       </c>
       <c r="C44" t="n">
-        <v>293.3125319713203</v>
+        <v>293.3125319713201</v>
       </c>
       <c r="D44" t="n">
-        <v>282.7226818209957</v>
+        <v>282.7226818209956</v>
       </c>
       <c r="E44" t="n">
-        <v>309.9700102725745</v>
+        <v>172.4763688623603</v>
       </c>
       <c r="F44" t="n">
         <v>334.9156859420241</v>
       </c>
       <c r="G44" t="n">
-        <v>338.9613658537662</v>
+        <v>338.9613658537661</v>
       </c>
       <c r="H44" t="n">
-        <v>222.6474045876332</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.22740198848857</v>
+        <v>37.22740198848847</v>
       </c>
       <c r="T44" t="n">
         <v>131.9576103399328</v>
       </c>
       <c r="U44" t="n">
-        <v>179.0348121592147</v>
+        <v>179.0348121592146</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>255.7918986704475</v>
       </c>
       <c r="W44" t="n">
-        <v>172.9314615903265</v>
+        <v>277.2806089177257</v>
       </c>
       <c r="X44" t="n">
         <v>297.7707408787817</v>
       </c>
       <c r="Y44" t="n">
-        <v>314.2775788563663</v>
+        <v>314.2775788563662</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.87162038225</v>
+        <v>107.8716203822499</v>
       </c>
       <c r="C46" t="n">
-        <v>95.28646129894055</v>
+        <v>95.28646129894045</v>
       </c>
       <c r="D46" t="n">
-        <v>76.65511321852507</v>
+        <v>76.65511321852497</v>
       </c>
       <c r="E46" t="n">
-        <v>105.9145225453378</v>
+        <v>74.47360284688179</v>
       </c>
       <c r="F46" t="n">
-        <v>73.46068822324396</v>
+        <v>73.46068822324386</v>
       </c>
       <c r="G46" t="n">
-        <v>94.06544845934094</v>
+        <v>94.06544845934084</v>
       </c>
       <c r="H46" t="n">
-        <v>72.7946551146335</v>
+        <v>72.7946551146334</v>
       </c>
       <c r="I46" t="n">
-        <v>24.39206061015081</v>
+        <v>24.39206061015073</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.97179287036005</v>
+        <v>16.97179287035996</v>
       </c>
       <c r="S46" t="n">
-        <v>117.8086655317546</v>
+        <v>117.8086655317545</v>
       </c>
       <c r="T46" t="n">
-        <v>147.5885894764819</v>
+        <v>147.5885894764818</v>
       </c>
       <c r="U46" t="n">
-        <v>214.2514784059256</v>
+        <v>245.6923981043818</v>
       </c>
       <c r="V46" t="n">
-        <v>180.1772835241407</v>
+        <v>180.1772835241406</v>
       </c>
       <c r="W46" t="n">
-        <v>214.5626385369037</v>
+        <v>214.5626385369036</v>
       </c>
       <c r="X46" t="n">
-        <v>153.7492955893499</v>
+        <v>153.7492955893498</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.6242935524075</v>
+        <v>146.6242935524074</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1654.93647038346</v>
+        <v>1644.057218491951</v>
       </c>
       <c r="C11" t="n">
-        <v>1333.423586391121</v>
+        <v>1322.544334499613</v>
       </c>
       <c r="D11" t="n">
-        <v>1022.607520732444</v>
+        <v>1011.728268840936</v>
       </c>
       <c r="E11" t="n">
-        <v>684.2689010822733</v>
+        <v>1011.728268840936</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822733</v>
+        <v>648.1919969994015</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>280.5691797924704</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.76478608434</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
         <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
-        <v>2912.574571441743</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2628.961317046246</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2323.642294724205</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>1997.626169411198</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y11" t="n">
-        <v>1654.93647038346</v>
+        <v>1983.207425608</v>
       </c>
     </row>
     <row r="12">
@@ -5115,10 +5115,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5182,28 +5182,28 @@
         <v>535.3126933611983</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657646</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K13" t="n">
         <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5224,7 +5224,7 @@
         <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105846</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874609</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1768.338774781835</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C14" t="n">
-        <v>1446.825890789497</v>
+        <v>979.8546354718749</v>
       </c>
       <c r="D14" t="n">
-        <v>1136.00982513082</v>
+        <v>669.0385698131977</v>
       </c>
       <c r="E14" t="n">
-        <v>797.6712054806485</v>
+        <v>330.6999501630265</v>
       </c>
       <c r="F14" t="n">
-        <v>434.1349336391137</v>
+        <v>330.6999501630265</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218343</v>
@@ -5279,7 +5279,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5288,13 +5288,13 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052369</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V14" t="n">
-        <v>3081.513828560669</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W14" t="n">
-        <v>2776.194806238629</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X14" t="n">
-        <v>2450.178680925622</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>2107.488981897884</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="15">
@@ -5331,64 +5331,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
         <v>116.3881606657648</v>
@@ -5437,10 +5437,10 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5449,10 +5449,10 @@
         <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
         <v>2299.337630107746</v>
@@ -5461,13 +5461,13 @@
         <v>2256.956805813347</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
@@ -5479,7 +5479,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874611</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1733.774944536554</v>
+        <v>1680.964583048799</v>
       </c>
       <c r="C17" t="n">
         <v>1459.711693492289</v>
@@ -5501,10 +5501,10 @@
         <v>905.4562740795875</v>
       </c>
       <c r="F17" t="n">
-        <v>589.3696351861265</v>
+        <v>589.3696351861264</v>
       </c>
       <c r="G17" t="n">
-        <v>269.1964509272696</v>
+        <v>269.1964509272697</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218343</v>
@@ -5513,19 +5513,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939509</v>
@@ -5537,7 +5537,7 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
         <v>3310.214419032413</v>
@@ -5549,16 +5549,16 @@
         <v>3040.504726482765</v>
       </c>
       <c r="V17" t="n">
-        <v>2857.151466523095</v>
+        <v>2804.341105035341</v>
       </c>
       <c r="W17" t="n">
-        <v>2599.282077149128</v>
+        <v>2546.471715661373</v>
       </c>
       <c r="X17" t="n">
-        <v>2320.715584784195</v>
+        <v>2267.90522329644</v>
       </c>
       <c r="Y17" t="n">
-        <v>2025.47551870453</v>
+        <v>1972.665157216775</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5568,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>619.6025238727345</v>
+        <v>524.7032579765872</v>
       </c>
       <c r="C19" t="n">
-        <v>545.5656068409742</v>
+        <v>450.6663409448269</v>
       </c>
       <c r="D19" t="n">
-        <v>487.863060413125</v>
+        <v>395.4489674286378</v>
       </c>
       <c r="E19" t="n">
-        <v>339.9499668307319</v>
+        <v>247.5358738462447</v>
       </c>
       <c r="F19" t="n">
-        <v>193.0600193328216</v>
+        <v>195.5451922444809</v>
       </c>
       <c r="G19" t="n">
         <v>120.2564486036871</v>
       </c>
       <c r="H19" t="n">
-        <v>68.93852771769147</v>
+        <v>68.93852771769149</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
         <v>1927.294548088493</v>
@@ -5698,25 +5698,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1830.507929811467</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1608.741314380993</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1319.638447506636</v>
+        <v>1319.638447506635</v>
       </c>
       <c r="V19" t="n">
-        <v>1159.853225196896</v>
+        <v>1159.853225196895</v>
       </c>
       <c r="W19" t="n">
-        <v>965.3353210560819</v>
+        <v>870.4360551599345</v>
       </c>
       <c r="X19" t="n">
-        <v>832.2450360542111</v>
+        <v>737.3457701580638</v>
       </c>
       <c r="Y19" t="n">
-        <v>706.3517228068276</v>
+        <v>611.4524569106803</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1733.774944536554</v>
+        <v>1680.964583048799</v>
       </c>
       <c r="C20" t="n">
-        <v>1459.711693492289</v>
+        <v>1406.901332004534</v>
       </c>
       <c r="D20" t="n">
-        <v>1196.345260781685</v>
+        <v>1143.53489929393</v>
       </c>
       <c r="E20" t="n">
-        <v>905.4562740795874</v>
+        <v>905.4562740795876</v>
       </c>
       <c r="F20" t="n">
-        <v>589.3696351861264</v>
+        <v>589.3696351861267</v>
       </c>
       <c r="G20" t="n">
         <v>269.1964509272697</v>
@@ -5750,16 +5750,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5768,34 +5768,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609172</v>
+        <v>3310.214419032413</v>
       </c>
       <c r="T20" t="n">
-        <v>3251.946298800536</v>
+        <v>3199.135937312782</v>
       </c>
       <c r="U20" t="n">
-        <v>3093.315087970519</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V20" t="n">
-        <v>2857.151466523095</v>
+        <v>2804.34110503534</v>
       </c>
       <c r="W20" t="n">
-        <v>2599.282077149128</v>
+        <v>2546.471715661372</v>
       </c>
       <c r="X20" t="n">
-        <v>2320.715584784195</v>
+        <v>2267.905223296439</v>
       </c>
       <c r="Y20" t="n">
-        <v>2025.475518704529</v>
+        <v>1972.665157216774</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,34 +5847,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>719.5705984225552</v>
+        <v>522.2180850649279</v>
       </c>
       <c r="C22" t="n">
-        <v>645.5336813907949</v>
+        <v>353.2819021370209</v>
       </c>
       <c r="D22" t="n">
-        <v>590.3163078746057</v>
+        <v>298.0645286208318</v>
       </c>
       <c r="E22" t="n">
-        <v>537.3024801883593</v>
+        <v>245.0507009345853</v>
       </c>
       <c r="F22" t="n">
-        <v>477.7578170212613</v>
+        <v>193.0600193328216</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>120.2564486036871</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>68.9385277176915</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5911,13 +5911,13 @@
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S22" t="n">
-        <v>1740.677472568994</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1613.810123034667</v>
+        <v>1511.356875573186</v>
       </c>
       <c r="U22" t="n">
-        <v>1419.606522056457</v>
+        <v>1317.153274594976</v>
       </c>
       <c r="V22" t="n">
-        <v>1259.821299746716</v>
+        <v>1062.468786389089</v>
       </c>
       <c r="W22" t="n">
-        <v>1065.303395605903</v>
+        <v>867.9508822482752</v>
       </c>
       <c r="X22" t="n">
-        <v>932.2131106040318</v>
+        <v>734.8605972464045</v>
       </c>
       <c r="Y22" t="n">
-        <v>806.3197973566483</v>
+        <v>608.967283999021</v>
       </c>
     </row>
     <row r="23">
@@ -5972,46 +5972,46 @@
         <v>1197.423023261027</v>
       </c>
       <c r="E23" t="n">
-        <v>906.5340365589295</v>
+        <v>906.5340365589291</v>
       </c>
       <c r="F23" t="n">
-        <v>590.4473976654685</v>
+        <v>590.4473976654683</v>
       </c>
       <c r="G23" t="n">
         <v>270.2742134066116</v>
       </c>
       <c r="H23" t="n">
-        <v>67.58987891152536</v>
+        <v>67.58987891152535</v>
       </c>
       <c r="I23" t="n">
-        <v>67.58987891152536</v>
+        <v>67.58987891152535</v>
       </c>
       <c r="J23" t="n">
-        <v>256.4690098705508</v>
+        <v>256.4690098705507</v>
       </c>
       <c r="K23" t="n">
-        <v>590.2883835603973</v>
+        <v>590.2883835603971</v>
       </c>
       <c r="L23" t="n">
         <v>1041.322596808806</v>
       </c>
       <c r="M23" t="n">
-        <v>1574.854501480731</v>
+        <v>1574.85450148073</v>
       </c>
       <c r="N23" t="n">
-        <v>2121.633318539513</v>
+        <v>2121.633318539512</v>
       </c>
       <c r="O23" t="n">
-        <v>2624.60578941885</v>
+        <v>2624.605789418849</v>
       </c>
       <c r="P23" t="n">
-        <v>3019.380155776028</v>
+        <v>3019.380155776027</v>
       </c>
       <c r="Q23" t="n">
-        <v>3267.66651753171</v>
+        <v>3320.476879019464</v>
       </c>
       <c r="R23" t="n">
-        <v>3379.493945576268</v>
+        <v>3379.493945576267</v>
       </c>
       <c r="S23" t="n">
         <v>3364.10254299951</v>
@@ -6026,7 +6026,7 @@
         <v>2858.229229002437</v>
       </c>
       <c r="W23" t="n">
-        <v>2600.35983962847</v>
+        <v>2600.359839628469</v>
       </c>
       <c r="X23" t="n">
         <v>2321.793347263536</v>
@@ -6060,19 +6060,19 @@
         <v>177.0990648721199</v>
       </c>
       <c r="H24" t="n">
-        <v>86.59717050998739</v>
+        <v>86.59717050998742</v>
       </c>
       <c r="I24" t="n">
-        <v>67.58987891152536</v>
+        <v>67.58987891152535</v>
       </c>
       <c r="J24" t="n">
-        <v>161.2671484021427</v>
+        <v>161.2671484021426</v>
       </c>
       <c r="K24" t="n">
-        <v>399.5313473824899</v>
+        <v>399.5313473824897</v>
       </c>
       <c r="L24" t="n">
-        <v>766.2295076951552</v>
+        <v>766.229507695155</v>
       </c>
       <c r="M24" t="n">
         <v>1213.505832917471</v>
@@ -6081,10 +6081,10 @@
         <v>1687.028876471926</v>
       </c>
       <c r="O24" t="n">
-        <v>2097.990155889981</v>
+        <v>2097.99015588998</v>
       </c>
       <c r="P24" t="n">
-        <v>2408.489747366084</v>
+        <v>2408.489747366083</v>
       </c>
       <c r="Q24" t="n">
         <v>2566.131305012683</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>620.6802863520757</v>
+        <v>428.3965816481232</v>
       </c>
       <c r="C25" t="n">
-        <v>546.6433693203153</v>
+        <v>354.3596646163629</v>
       </c>
       <c r="D25" t="n">
-        <v>491.4259958041262</v>
+        <v>299.1422911001737</v>
       </c>
       <c r="E25" t="n">
-        <v>438.4121681178796</v>
+        <v>246.1284634139272</v>
       </c>
       <c r="F25" t="n">
-        <v>386.4214865161159</v>
+        <v>194.1377818121635</v>
       </c>
       <c r="G25" t="n">
-        <v>218.7186498908348</v>
+        <v>121.334211083029</v>
       </c>
       <c r="H25" t="n">
-        <v>72.5014631086926</v>
+        <v>70.01629019703341</v>
       </c>
       <c r="I25" t="n">
-        <v>67.58987891152536</v>
+        <v>67.58987891152535</v>
       </c>
       <c r="J25" t="n">
         <v>112.7125113584609</v>
       </c>
       <c r="K25" t="n">
-        <v>316.6996943073373</v>
+        <v>316.6996943073372</v>
       </c>
       <c r="L25" t="n">
-        <v>633.2594927558334</v>
+        <v>633.2594927558333</v>
       </c>
       <c r="M25" t="n">
-        <v>977.4165383553825</v>
+        <v>977.4165383553823</v>
       </c>
       <c r="N25" t="n">
         <v>1318.824915061247</v>
       </c>
       <c r="O25" t="n">
-        <v>1618.154513981661</v>
+        <v>1618.15451398166</v>
       </c>
       <c r="P25" t="n">
         <v>1850.76201441532</v>
       </c>
       <c r="Q25" t="n">
-        <v>1928.372310567835</v>
+        <v>1928.372310567834</v>
       </c>
       <c r="R25" t="n">
-        <v>1928.372310567835</v>
+        <v>1928.372310567834</v>
       </c>
       <c r="S25" t="n">
-        <v>1831.585692290808</v>
+        <v>1736.68642639466</v>
       </c>
       <c r="T25" t="n">
-        <v>1704.718342756481</v>
+        <v>1514.919810964187</v>
       </c>
       <c r="U25" t="n">
-        <v>1415.615475882124</v>
+        <v>1225.81694408983</v>
       </c>
       <c r="V25" t="n">
-        <v>1160.930987676237</v>
+        <v>1066.03172178009</v>
       </c>
       <c r="W25" t="n">
-        <v>966.413083535423</v>
+        <v>776.6145517431291</v>
       </c>
       <c r="X25" t="n">
-        <v>833.3227985335523</v>
+        <v>641.0390938295998</v>
       </c>
       <c r="Y25" t="n">
-        <v>707.4294852861688</v>
+        <v>515.1457805822163</v>
       </c>
     </row>
     <row r="26">
@@ -6200,64 +6200,64 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467798</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>625.3777437664576</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1076.411957014866</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>1609.943861686791</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2156.722678745573</v>
+        <v>2135.190356524676</v>
       </c>
       <c r="O26" t="n">
-        <v>3036.687329075028</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
@@ -6266,10 +6266,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398489</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1468.364237198916</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.89614187084</v>
+        <v>1921.876785462656</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285459</v>
+        <v>2468.655602521438</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164796</v>
+        <v>2971.628073400775</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
         <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643394</v>
@@ -6616,19 +6616,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467802</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1635.769886219269</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623799</v>
+        <v>2169.301790891193</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285459</v>
+        <v>2716.080607949975</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3219.053078829312</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,73 +6753,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y33" t="n">
         <v>1124.393991965682</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
         <v>1910.743863481263</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6911,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1581.468680702202</v>
+        <v>1503.268312846796</v>
       </c>
       <c r="C35" t="n">
-        <v>1285.193395882687</v>
+        <v>1206.993028027281</v>
       </c>
       <c r="D35" t="n">
-        <v>1285.193395882687</v>
+        <v>921.4145615414274</v>
       </c>
       <c r="E35" t="n">
-        <v>972.0923754053387</v>
+        <v>629.7071573712311</v>
       </c>
       <c r="F35" t="n">
-        <v>633.7937027366273</v>
+        <v>291.4084847025199</v>
       </c>
       <c r="G35" t="n">
-        <v>291.40848470252</v>
+        <v>291.4084847025199</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6965,22 +6965,22 @@
         <v>3288.002385257163</v>
       </c>
       <c r="T35" t="n">
-        <v>3154.711869762281</v>
+        <v>3154.71186976228</v>
       </c>
       <c r="U35" t="n">
         <v>2973.868625157013</v>
       </c>
       <c r="V35" t="n">
-        <v>2715.492969934339</v>
+        <v>2715.492969934338</v>
       </c>
       <c r="W35" t="n">
-        <v>2435.411546785122</v>
+        <v>2435.411546785121</v>
       </c>
       <c r="X35" t="n">
-        <v>2212.833388500343</v>
+        <v>2134.633020644937</v>
       </c>
       <c r="Y35" t="n">
-        <v>1895.381288645428</v>
+        <v>1817.180920790022</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D36" t="n">
         <v>618.1564155387305</v>
@@ -7002,46 +7002,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>614.5615603414486</v>
+        <v>582.803055595533</v>
       </c>
       <c r="C37" t="n">
-        <v>518.312609534438</v>
+        <v>486.5541047885224</v>
       </c>
       <c r="D37" t="n">
-        <v>440.8832022429985</v>
+        <v>409.124697497083</v>
       </c>
       <c r="E37" t="n">
-        <v>365.6573407815017</v>
+        <v>333.8988360355863</v>
       </c>
       <c r="F37" t="n">
-        <v>259.6961206585726</v>
+        <v>259.6961206585723</v>
       </c>
       <c r="G37" t="n">
-        <v>164.6805161541878</v>
+        <v>164.6805161541876</v>
       </c>
       <c r="H37" t="n">
-        <v>91.15056149294183</v>
+        <v>91.15056149294172</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7135,10 +7135,10 @@
         <v>1026.930458850547</v>
       </c>
       <c r="X37" t="n">
-        <v>871.6281400734259</v>
+        <v>871.6281400734263</v>
       </c>
       <c r="Y37" t="n">
-        <v>723.5227930507921</v>
+        <v>691.7642883048763</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1867.047147188056</v>
+        <v>1503.268312846797</v>
       </c>
       <c r="C38" t="n">
-        <v>1570.771862368541</v>
+        <v>1206.993028027282</v>
       </c>
       <c r="D38" t="n">
-        <v>1285.193395882686</v>
+        <v>921.4145615414274</v>
       </c>
       <c r="E38" t="n">
-        <v>972.0923754053384</v>
+        <v>747.1960071350018</v>
       </c>
       <c r="F38" t="n">
-        <v>633.7937027366271</v>
+        <v>408.8973344662905</v>
       </c>
       <c r="G38" t="n">
-        <v>291.40848470252</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7172,19 +7172,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7199,25 +7199,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3288.002385257162</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3154.71186976228</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>2973.868625157013</v>
       </c>
       <c r="V38" t="n">
-        <v>3079.271804275599</v>
+        <v>2715.492969934339</v>
       </c>
       <c r="W38" t="n">
-        <v>2799.190381126381</v>
+        <v>2435.411546785121</v>
       </c>
       <c r="X38" t="n">
-        <v>2498.411854986197</v>
+        <v>2134.633020644937</v>
       </c>
       <c r="Y38" t="n">
-        <v>2180.959755131282</v>
+        <v>1817.180920790022</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7254,10 +7254,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7269,34 +7269,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>614.5615603414486</v>
+        <v>582.803055595533</v>
       </c>
       <c r="C40" t="n">
-        <v>518.312609534438</v>
+        <v>486.5541047885225</v>
       </c>
       <c r="D40" t="n">
-        <v>440.8832022429985</v>
+        <v>409.1246974970831</v>
       </c>
       <c r="E40" t="n">
-        <v>365.6573407815017</v>
+        <v>333.8988360355863</v>
       </c>
       <c r="F40" t="n">
-        <v>259.6961206585726</v>
+        <v>259.6961206585723</v>
       </c>
       <c r="G40" t="n">
-        <v>164.6805161541878</v>
+        <v>164.6805161541876</v>
       </c>
       <c r="H40" t="n">
-        <v>91.15056149294182</v>
+        <v>91.15056149294173</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1910.151322966917</v>
+        <v>1910.151322966916</v>
       </c>
       <c r="S40" t="n">
-        <v>1791.15267091464</v>
+        <v>1791.152670914639</v>
       </c>
       <c r="T40" t="n">
         <v>1642.073287605062</v>
       </c>
       <c r="U40" t="n">
-        <v>1425.657652851602</v>
+        <v>1425.657652851601</v>
       </c>
       <c r="V40" t="n">
-        <v>1243.660396766611</v>
+        <v>1211.901892020695</v>
       </c>
       <c r="W40" t="n">
-        <v>1026.930458850547</v>
+        <v>995.1719541046311</v>
       </c>
       <c r="X40" t="n">
-        <v>871.6281400734259</v>
+        <v>839.8696353275101</v>
       </c>
       <c r="Y40" t="n">
-        <v>723.5227930507921</v>
+        <v>691.7642883048763</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1855.005509298954</v>
+        <v>1503.268312846797</v>
       </c>
       <c r="C41" t="n">
-        <v>1558.730224479439</v>
+        <v>1206.993028027282</v>
       </c>
       <c r="D41" t="n">
-        <v>1273.151757993585</v>
+        <v>921.4145615414272</v>
       </c>
       <c r="E41" t="n">
-        <v>960.0507375162367</v>
+        <v>633.7937027366271</v>
       </c>
       <c r="F41" t="n">
-        <v>621.7520648475254</v>
+        <v>633.7937027366271</v>
       </c>
       <c r="G41" t="n">
-        <v>291.40848470252</v>
+        <v>291.4084847025199</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7427,7 +7427,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7436,25 +7436,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3288.002385257162</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3154.71186976228</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2973.868625157013</v>
       </c>
       <c r="V41" t="n">
-        <v>3067.230166386496</v>
+        <v>2715.492969934339</v>
       </c>
       <c r="W41" t="n">
-        <v>2787.148743237279</v>
+        <v>2435.411546785121</v>
       </c>
       <c r="X41" t="n">
-        <v>2486.370217097095</v>
+        <v>2134.633020644938</v>
       </c>
       <c r="Y41" t="n">
-        <v>2168.91811724218</v>
+        <v>1817.180920790022</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.8030555955336</v>
+        <v>582.803055595533</v>
       </c>
       <c r="C43" t="n">
-        <v>486.554104788523</v>
+        <v>486.5541047885225</v>
       </c>
       <c r="D43" t="n">
-        <v>409.1246974970835</v>
+        <v>409.1246974970831</v>
       </c>
       <c r="E43" t="n">
-        <v>333.8988360355867</v>
+        <v>333.8988360355863</v>
       </c>
       <c r="F43" t="n">
-        <v>259.6961206585726</v>
+        <v>259.6961206585723</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6805161541878</v>
+        <v>164.6805161541876</v>
       </c>
       <c r="H43" t="n">
-        <v>91.15056149294182</v>
+        <v>91.15056149294173</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1878.392818221002</v>
+        <v>1878.392818221001</v>
       </c>
       <c r="S43" t="n">
-        <v>1759.394166168725</v>
+        <v>1759.394166168724</v>
       </c>
       <c r="T43" t="n">
-        <v>1610.314782859147</v>
+        <v>1610.314782859146</v>
       </c>
       <c r="U43" t="n">
-        <v>1393.899148105687</v>
+        <v>1393.899148105686</v>
       </c>
       <c r="V43" t="n">
-        <v>1211.901892020696</v>
+        <v>1211.901892020695</v>
       </c>
       <c r="W43" t="n">
-        <v>995.1719541046319</v>
+        <v>995.1719541046311</v>
       </c>
       <c r="X43" t="n">
-        <v>839.8696353275109</v>
+        <v>839.8696353275101</v>
       </c>
       <c r="Y43" t="n">
-        <v>691.764288304877</v>
+        <v>691.7642883048763</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1867.047147188056</v>
+        <v>1503.268312846796</v>
       </c>
       <c r="C44" t="n">
-        <v>1570.77186236854</v>
+        <v>1206.993028027281</v>
       </c>
       <c r="D44" t="n">
-        <v>1285.193395882686</v>
+        <v>921.4145615414268</v>
       </c>
       <c r="E44" t="n">
-        <v>972.0923754053384</v>
+        <v>747.1960071350022</v>
       </c>
       <c r="F44" t="n">
-        <v>633.7937027366271</v>
+        <v>408.8973344662906</v>
       </c>
       <c r="G44" t="n">
-        <v>291.40848470252</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,25 +7646,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7673,25 +7673,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3288.002385257163</v>
+        <v>3288.002385257162</v>
       </c>
       <c r="T44" t="n">
-        <v>3154.711869762281</v>
+        <v>3154.71186976228</v>
       </c>
       <c r="U44" t="n">
         <v>2973.868625157013</v>
       </c>
       <c r="V44" t="n">
-        <v>2973.868625157013</v>
+        <v>2715.492969934339</v>
       </c>
       <c r="W44" t="n">
-        <v>2799.190381126381</v>
+        <v>2435.411546785122</v>
       </c>
       <c r="X44" t="n">
-        <v>2498.411854986197</v>
+        <v>2134.633020644938</v>
       </c>
       <c r="Y44" t="n">
-        <v>2180.959755131282</v>
+        <v>1817.180920790022</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7728,10 +7728,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,34 +7743,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>614.5615603414486</v>
+        <v>582.803055595533</v>
       </c>
       <c r="C46" t="n">
-        <v>518.312609534438</v>
+        <v>486.5541047885225</v>
       </c>
       <c r="D46" t="n">
-        <v>440.8832022429985</v>
+        <v>409.1246974970831</v>
       </c>
       <c r="E46" t="n">
-        <v>333.8988360355867</v>
+        <v>333.8988360355863</v>
       </c>
       <c r="F46" t="n">
-        <v>259.6961206585726</v>
+        <v>259.6961206585723</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6805161541878</v>
+        <v>164.6805161541876</v>
       </c>
       <c r="H46" t="n">
-        <v>91.15056149294182</v>
+        <v>91.15056149294173</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1910.151322966917</v>
+        <v>1910.151322966916</v>
       </c>
       <c r="S46" t="n">
-        <v>1791.15267091464</v>
+        <v>1791.152670914639</v>
       </c>
       <c r="T46" t="n">
         <v>1642.073287605062</v>
       </c>
       <c r="U46" t="n">
-        <v>1425.657652851602</v>
+        <v>1393.899148105686</v>
       </c>
       <c r="V46" t="n">
-        <v>1243.660396766611</v>
+        <v>1211.901892020695</v>
       </c>
       <c r="W46" t="n">
-        <v>1026.930458850547</v>
+        <v>995.1719541046311</v>
       </c>
       <c r="X46" t="n">
-        <v>871.6281400734259</v>
+        <v>839.8696353275101</v>
       </c>
       <c r="Y46" t="n">
-        <v>723.5227930507921</v>
+        <v>691.7642883048763</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>203.054164324144</v>
+        <v>203.0541643241434</v>
       </c>
       <c r="L8" t="n">
-        <v>214.6321391943249</v>
+        <v>214.6321391943242</v>
       </c>
       <c r="M8" t="n">
-        <v>206.8302792878638</v>
+        <v>206.830279287863</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5165969372695</v>
+        <v>205.5165969372686</v>
       </c>
       <c r="O8" t="n">
-        <v>207.5334555793052</v>
+        <v>207.5334555793044</v>
       </c>
       <c r="P8" t="n">
-        <v>211.9744986978739</v>
+        <v>211.9744986978732</v>
       </c>
       <c r="Q8" t="n">
-        <v>207.8433606241347</v>
+        <v>207.8433606241342</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>120.0677179124327</v>
+        <v>120.0677179124324</v>
       </c>
       <c r="K9" t="n">
-        <v>126.2705866181716</v>
+        <v>126.2705866181711</v>
       </c>
       <c r="L9" t="n">
-        <v>122.9959408551096</v>
+        <v>122.995940855109</v>
       </c>
       <c r="M9" t="n">
-        <v>123.9780695409729</v>
+        <v>123.9780695409723</v>
       </c>
       <c r="N9" t="n">
-        <v>112.7052133498798</v>
+        <v>112.7052133498791</v>
       </c>
       <c r="O9" t="n">
-        <v>125.5474890388954</v>
+        <v>125.5474890388948</v>
       </c>
       <c r="P9" t="n">
-        <v>120.2912781565502</v>
+        <v>120.2912781565497</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.8349645422108</v>
+        <v>130.8349645422105</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>125.953328966225</v>
+        <v>125.9533289662247</v>
       </c>
       <c r="M10" t="n">
-        <v>129.5089304712217</v>
+        <v>129.5089304712213</v>
       </c>
       <c r="N10" t="n">
-        <v>118.4926027168158</v>
+        <v>118.4926027168154</v>
       </c>
       <c r="O10" t="n">
-        <v>129.9653688264407</v>
+        <v>129.9653688264404</v>
       </c>
       <c r="P10" t="n">
-        <v>130.4623415397348</v>
+        <v>130.4623415397346</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.161737372967764e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>53.34379948258086</v>
       </c>
       <c r="R23" t="n">
-        <v>53.34379948258085</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>21.7498204251479</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>190.2350110279889</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>167.736966642837</v>
       </c>
       <c r="N29" t="n">
-        <v>306.6874953089251</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,25 +10346,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>274.835176366543</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>137.5908801368512</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.16881310865461</v>
+        <v>15.1688131086546</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>35.71613504204381</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>14.27455636516565</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>350.0332614100541</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.2126251695833</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210273</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>39.12604873352526</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>52.28225787287732</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>52.28225787287521</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>52.28225787287745</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>15.23748855099072</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>37.04476932188564</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>2.984279490192421e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -25157,16 +25157,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>282.7226818209957</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>21.17968014408015</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>338.9613658537661</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25217,7 +25217,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>77.41836417685101</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25397,7 +25397,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>137.4936414102131</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>222.6474045876331</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25439,16 +25439,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>37.22740198848857</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>131.9576103399328</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>179.0348121592147</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>11.92122151021159</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25634,13 +25634,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>25.22536005582262</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>334.9156859420241</v>
       </c>
       <c r="G41" t="n">
-        <v>11.9212215102113</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.22740198848857</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>131.9576103399328</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>179.0348121592147</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>137.4936414102141</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>222.6474045876331</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25922,10 +25922,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>255.7918986704476</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>104.3491473273992</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>718880.9328259601</v>
+        <v>718880.9328259599</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>625468.8998684605</v>
+        <v>625468.8998684606</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>607089.7302173997</v>
+        <v>607089.7302173998</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819276.3387170384</v>
+        <v>819276.3387170383</v>
       </c>
       <c r="C2" t="n">
         <v>819276.3387170384</v>
       </c>
       <c r="D2" t="n">
-        <v>819286.999099794</v>
+        <v>819286.9990997947</v>
       </c>
       <c r="E2" t="n">
+        <v>764531.0098898427</v>
+      </c>
+      <c r="F2" t="n">
         <v>764531.0098898425</v>
       </c>
-      <c r="F2" t="n">
-        <v>764531.0098898414</v>
-      </c>
       <c r="G2" t="n">
-        <v>816880.1021376029</v>
+        <v>816880.1021376024</v>
       </c>
       <c r="H2" t="n">
-        <v>816880.1021376024</v>
+        <v>816880.1021376023</v>
       </c>
       <c r="I2" t="n">
+        <v>821041.7698642835</v>
+      </c>
+      <c r="J2" t="n">
+        <v>821041.7698642833</v>
+      </c>
+      <c r="K2" t="n">
+        <v>821041.7698642821</v>
+      </c>
+      <c r="L2" t="n">
         <v>821041.769864283</v>
-      </c>
-      <c r="J2" t="n">
-        <v>821041.7698642827</v>
-      </c>
-      <c r="K2" t="n">
-        <v>821041.7698642832</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642819</v>
       </c>
       <c r="M2" t="n">
         <v>792374.542602854</v>
       </c>
       <c r="N2" t="n">
+        <v>792374.5426028538</v>
+      </c>
+      <c r="O2" t="n">
         <v>792374.5426028544</v>
       </c>
-      <c r="O2" t="n">
-        <v>792374.5426028542</v>
-      </c>
       <c r="P2" t="n">
-        <v>792374.5426028547</v>
+        <v>792374.5426028537</v>
       </c>
     </row>
     <row r="3">
@@ -26369,22 +26369,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>28530.31574207084</v>
+        <v>28530.31574207186</v>
       </c>
       <c r="E3" t="n">
-        <v>1134583.840235261</v>
+        <v>1134583.840235259</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487442</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3582.495953363527</v>
+        <v>3582.495953363497</v>
       </c>
       <c r="J3" t="n">
         <v>44338.97058237751</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487411</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
-        <v>181588.6116499901</v>
+        <v>181588.6116499902</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,22 +26421,22 @@
         <v>457775.3608255375</v>
       </c>
       <c r="D4" t="n">
-        <v>446902.0597383789</v>
+        <v>446902.0597383785</v>
       </c>
       <c r="E4" t="n">
-        <v>60655.33327364775</v>
+        <v>60655.33327364778</v>
       </c>
       <c r="F4" t="n">
-        <v>60655.33327364775</v>
+        <v>60655.33327364777</v>
       </c>
       <c r="G4" t="n">
-        <v>90418.49996534971</v>
+        <v>90418.49996534978</v>
       </c>
       <c r="H4" t="n">
-        <v>90418.49996534981</v>
+        <v>90418.49996534988</v>
       </c>
       <c r="I4" t="n">
-        <v>92654.10659538503</v>
+        <v>92654.10659538506</v>
       </c>
       <c r="J4" t="n">
         <v>91012.35309462831</v>
@@ -26448,16 +26448,16 @@
         <v>91012.35309462831</v>
       </c>
       <c r="M4" t="n">
-        <v>76431.53341453991</v>
+        <v>76431.53341453998</v>
       </c>
       <c r="N4" t="n">
-        <v>76431.53341453991</v>
+        <v>76431.53341454003</v>
       </c>
       <c r="O4" t="n">
-        <v>76431.53341453991</v>
+        <v>76431.53341454004</v>
       </c>
       <c r="P4" t="n">
-        <v>76431.53341453991</v>
+        <v>76431.53341454003</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34353.83857524181</v>
+        <v>34353.83857524184</v>
       </c>
       <c r="E5" t="n">
         <v>78255.49332178176</v>
@@ -26482,25 +26482,25 @@
         <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>82204.64608217023</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="H5" t="n">
         <v>82204.64608217022</v>
       </c>
       <c r="I5" t="n">
-        <v>83023.74556647008</v>
+        <v>83023.74556647007</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
+        <v>89377.9416748061</v>
+      </c>
+      <c r="L5" t="n">
         <v>89377.94167480612</v>
       </c>
-      <c r="L5" t="n">
-        <v>89377.94167480613</v>
-      </c>
       <c r="M5" t="n">
-        <v>80355.97604939321</v>
+        <v>80355.97604939323</v>
       </c>
       <c r="N5" t="n">
         <v>80355.97604939321</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>327873.3778915009</v>
+        <v>327868.9643136327</v>
       </c>
       <c r="C6" t="n">
-        <v>327873.3778915009</v>
+        <v>327868.9643136328</v>
       </c>
       <c r="D6" t="n">
-        <v>309500.7850441025</v>
+        <v>309496.3981171912</v>
       </c>
       <c r="E6" t="n">
-        <v>-508963.6569408476</v>
+        <v>-509104.9338407823</v>
       </c>
       <c r="F6" t="n">
-        <v>625620.183294412</v>
+        <v>625478.9063944768</v>
       </c>
       <c r="G6" t="n">
-        <v>606676.8467952086</v>
+        <v>606666.4426258917</v>
       </c>
       <c r="H6" t="n">
-        <v>644256.9560900828</v>
+        <v>644246.5519207655</v>
       </c>
       <c r="I6" t="n">
-        <v>641781.4217490645</v>
+        <v>641781.4217490649</v>
       </c>
       <c r="J6" t="n">
-        <v>596312.5045124707</v>
+        <v>596312.5045124714</v>
       </c>
       <c r="K6" t="n">
-        <v>640651.4750948488</v>
+        <v>640651.4750948477</v>
       </c>
       <c r="L6" t="n">
-        <v>603071.3657999733</v>
+        <v>603071.3657999747</v>
       </c>
       <c r="M6" t="n">
-        <v>453998.4214889308</v>
+        <v>453926.753420777</v>
       </c>
       <c r="N6" t="n">
-        <v>635587.0331389214</v>
+        <v>635515.3650707671</v>
       </c>
       <c r="O6" t="n">
-        <v>635587.0331389211</v>
+        <v>635515.3650707677</v>
       </c>
       <c r="P6" t="n">
-        <v>635587.0331389216</v>
+        <v>635515.365070767</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="H2" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="I2" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="N2" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="O2" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="P2" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>33.31369611200989</v>
+        <v>33.31369611201108</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>844.873486394067</v>
+        <v>844.8734863940667</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
-        <v>24.98522318109467</v>
+        <v>24.98522318109481</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>33.31369611200989</v>
+        <v>33.31369611201108</v>
       </c>
       <c r="E3" t="n">
-        <v>1056.463004481288</v>
+        <v>1056.463004481287</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>13.47203099177398</v>
+        <v>13.47203099177386</v>
       </c>
       <c r="J4" t="n">
         <v>169.4629748145477</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.1032487878993</v>
+        <v>338.1032487878992</v>
       </c>
       <c r="I8" t="n">
-        <v>205.3127688895687</v>
+        <v>205.3127688895685</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5826227600931198</v>
+        <v>0.5826227600927147</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.4564889425726</v>
+        <v>141.4564889425723</v>
       </c>
       <c r="S8" t="n">
-        <v>205.9682671735723</v>
+        <v>205.9682671735722</v>
       </c>
       <c r="T8" t="n">
         <v>222.5095954747632</v>
@@ -27947,10 +27947,10 @@
         <v>137.2718612885546</v>
       </c>
       <c r="H9" t="n">
-        <v>111.5433993417923</v>
+        <v>111.5433993417922</v>
       </c>
       <c r="I9" t="n">
-        <v>86.92953365821434</v>
+        <v>86.92953365821425</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>95.70888432092981</v>
+        <v>95.70888432092966</v>
       </c>
       <c r="S9" t="n">
         <v>170.3521946601174</v>
@@ -28029,13 +28029,13 @@
         <v>161.6930611173159</v>
       </c>
       <c r="I10" t="n">
-        <v>153.643889570889</v>
+        <v>153.6438895708889</v>
       </c>
       <c r="J10" t="n">
-        <v>89.1119569254744</v>
+        <v>89.11195692547425</v>
       </c>
       <c r="K10" t="n">
-        <v>15.2899994273339</v>
+        <v>15.28999942733365</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>81.13167513878089</v>
+        <v>81.13167513878071</v>
       </c>
       <c r="R10" t="n">
-        <v>174.5922513612678</v>
+        <v>174.5922513612677</v>
       </c>
       <c r="S10" t="n">
         <v>222.9696741771899</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859301</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="C17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="D17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="E17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="F17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="G17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="H17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="T17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="U17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="V17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="W17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="X17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="C19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="D19" t="n">
-        <v>91.48995205464171</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="G19" t="n">
-        <v>93.95027323718512</v>
+        <v>91.48995205464234</v>
       </c>
       <c r="H19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="I19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>93.95027323718512</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="V19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="W19" t="n">
-        <v>93.95027323718512</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="C20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="D20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="E20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="F20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="G20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="H20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="T20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="U20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="V20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="W20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="X20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="C22" t="n">
-        <v>93.95027323718512</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="E22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="F22" t="n">
-        <v>86.47183148750428</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>93.95027323718512</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>93.95027323718512</v>
+        <v>86.4718314875052</v>
       </c>
       <c r="U22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="V22" t="n">
-        <v>93.95027323718512</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="X22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="C23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="D23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="E23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="F23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="G23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="H23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="T23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="U23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="V23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="W23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="X23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="C25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="D25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="E25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="F25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="I25" t="n">
-        <v>91.48995205464252</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>93.95027323718512</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>93.95027323718512</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="W25" t="n">
-        <v>93.95027323718512</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>93.95027323718512</v>
+        <v>91.48995205464308</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29530,7 +29530,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29694,7 +29694,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859267</v>
       </c>
       <c r="L31" t="n">
         <v>46.97513661859256</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859125</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="C35" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="D35" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="E35" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="F35" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="G35" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="H35" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="T35" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="U35" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="V35" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="W35" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="X35" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="Y35" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="C37" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="D37" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="E37" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="F37" t="n">
-        <v>40.5194401012314</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="G37" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="H37" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="I37" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="S37" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="T37" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="U37" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="V37" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="W37" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="X37" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="Y37" t="n">
-        <v>71.96035979968728</v>
+        <v>40.51944010123037</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="C38" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="D38" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="E38" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="F38" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="G38" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="H38" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="T38" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="U38" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="V38" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="W38" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="X38" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="Y38" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="C40" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="D40" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="E40" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="F40" t="n">
-        <v>40.5194401012314</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="G40" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="H40" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="I40" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="S40" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="T40" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="U40" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="V40" t="n">
-        <v>71.96035979968728</v>
+        <v>40.51944010123111</v>
       </c>
       <c r="W40" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="X40" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="Y40" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="C41" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="D41" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="E41" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="F41" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="G41" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="H41" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="T41" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="U41" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="V41" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="W41" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="X41" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="C43" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="D43" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="E43" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="F43" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="G43" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="H43" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="I43" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>40.51944010123148</v>
+        <v>40.51944010123105</v>
       </c>
       <c r="S43" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="T43" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="U43" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="V43" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="W43" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="X43" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="C44" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="D44" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="E44" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="F44" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="G44" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="H44" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="T44" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="U44" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="V44" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="W44" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="X44" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="Y44" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="C46" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="D46" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="E46" t="n">
-        <v>40.51944010123141</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="F46" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="G46" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="H46" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="S46" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="T46" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="U46" t="n">
-        <v>71.96035979968728</v>
+        <v>40.51944010123111</v>
       </c>
       <c r="V46" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="W46" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="X46" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.96035979968728</v>
+        <v>71.96035979968738</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1339244064804417</v>
+        <v>0.1339244064804465</v>
       </c>
       <c r="H8" t="n">
-        <v>1.371553327867824</v>
+        <v>1.371553327867873</v>
       </c>
       <c r="I8" t="n">
-        <v>5.163120680837233</v>
+        <v>5.163120680837417</v>
       </c>
       <c r="J8" t="n">
-        <v>11.3666665945194</v>
+        <v>11.3666665945198</v>
       </c>
       <c r="K8" t="n">
-        <v>17.0356867208365</v>
+        <v>17.0356867208371</v>
       </c>
       <c r="L8" t="n">
-        <v>21.13427577566232</v>
+        <v>21.13427577566307</v>
       </c>
       <c r="M8" t="n">
-        <v>23.51595393940887</v>
+        <v>23.51595393940971</v>
       </c>
       <c r="N8" t="n">
-        <v>23.89646665932143</v>
+        <v>23.89646665932228</v>
       </c>
       <c r="O8" t="n">
-        <v>22.56475584238154</v>
+        <v>22.56475584238234</v>
       </c>
       <c r="P8" t="n">
-        <v>19.25849705739563</v>
+        <v>19.25849705739632</v>
       </c>
       <c r="Q8" t="n">
-        <v>14.46232925031481</v>
+        <v>14.46232925031532</v>
       </c>
       <c r="R8" t="n">
-        <v>8.412628998577052</v>
+        <v>8.412628998577352</v>
       </c>
       <c r="S8" t="n">
-        <v>3.051802412673068</v>
+        <v>3.051802412673176</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5862540893681337</v>
+        <v>0.5862540893681546</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01071395251843533</v>
+        <v>0.01071395251843571</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07165587465602129</v>
+        <v>0.07165587465602384</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6920448947042056</v>
+        <v>0.6920448947042303</v>
       </c>
       <c r="I9" t="n">
-        <v>2.467099193200733</v>
+        <v>2.467099193200821</v>
       </c>
       <c r="J9" t="n">
-        <v>6.769908754234011</v>
+        <v>6.769908754234253</v>
       </c>
       <c r="K9" t="n">
-        <v>11.57085235618744</v>
+        <v>11.57085235618785</v>
       </c>
       <c r="L9" t="n">
-        <v>15.55843892476462</v>
+        <v>15.55843892476518</v>
       </c>
       <c r="M9" t="n">
-        <v>18.15596438104539</v>
+        <v>18.15596438104604</v>
       </c>
       <c r="N9" t="n">
-        <v>18.63649873345354</v>
+        <v>18.6364987334542</v>
       </c>
       <c r="O9" t="n">
-        <v>17.04875540554906</v>
+        <v>17.04875540554967</v>
       </c>
       <c r="P9" t="n">
-        <v>13.68312925778006</v>
+        <v>13.68312925778055</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.146809543810717</v>
+        <v>9.146809543811043</v>
       </c>
       <c r="R9" t="n">
-        <v>4.448949831713323</v>
+        <v>4.448949831713482</v>
       </c>
       <c r="S9" t="n">
-        <v>1.330976443720394</v>
+        <v>1.330976443720442</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2888234596880856</v>
+        <v>0.288823459688096</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004714202280001402</v>
+        <v>0.004714202280001569</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06007387823477193</v>
+        <v>0.06007387823477407</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5341113901236999</v>
+        <v>0.534111390123719</v>
       </c>
       <c r="I10" t="n">
-        <v>1.806585356369324</v>
+        <v>1.806585356369388</v>
       </c>
       <c r="J10" t="n">
-        <v>4.247223191198375</v>
+        <v>4.247223191198526</v>
       </c>
       <c r="K10" t="n">
-        <v>6.979492398548956</v>
+        <v>6.979492398549204</v>
       </c>
       <c r="L10" t="n">
-        <v>8.931347315013276</v>
+        <v>8.931347315013594</v>
       </c>
       <c r="M10" t="n">
-        <v>9.416853476383384</v>
+        <v>9.41685347638372</v>
       </c>
       <c r="N10" t="n">
-        <v>9.192941748417423</v>
+        <v>9.192941748417752</v>
       </c>
       <c r="O10" t="n">
-        <v>8.491169625402131</v>
+        <v>8.491169625402433</v>
       </c>
       <c r="P10" t="n">
-        <v>7.265662509412777</v>
+        <v>7.265662509413036</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.030368112913494</v>
+        <v>5.030368112913673</v>
       </c>
       <c r="R10" t="n">
-        <v>2.701140015901654</v>
+        <v>2.70114001590175</v>
       </c>
       <c r="S10" t="n">
-        <v>1.046923859782343</v>
+        <v>1.04692385978238</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2566792979122073</v>
+        <v>0.2566792979122164</v>
       </c>
       <c r="U10" t="n">
-        <v>0.003276756994623928</v>
+        <v>0.003276756994624044</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,10 +33968,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33980,28 +33980,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -35814,10 +35814,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412328</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
         <v>281.932207763703</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222572</v>
+        <v>59.61319854222617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597691</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>304.1381042863003</v>
       </c>
       <c r="R23" t="n">
-        <v>112.9569980248056</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>358.9411069805484</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>698.2880119162079</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597776</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>706.6580824730636</v>
       </c>
       <c r="N29" t="n">
-        <v>858.9893307218366</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359772</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>827.1370117794545</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>536.3528663562229</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861313</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37628,19 +37628,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
